--- a/public/Reporte_mov_por_item.xlsx
+++ b/public/Reporte_mov_por_item.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
   <si>
     <t>REPORTE DE MOVIMIENTOS POR ITEM</t>
   </si>
@@ -92,13 +92,22 @@
     <t>Manojo</t>
   </si>
   <si>
+    <t>SAL (1 Quintal)</t>
+  </si>
+  <si>
+    <t>Quintal</t>
+  </si>
+  <si>
     <t>HARINA (1 Quintal)</t>
   </si>
   <si>
-    <t>Quintal</t>
-  </si>
-  <si>
     <t>3 - Bebidas/Refrescos</t>
+  </si>
+  <si>
+    <t>COCA-COLA (BOTELLAS DE 2 LITROS)</t>
+  </si>
+  <si>
+    <t>Litro</t>
   </si>
   <si>
     <t>AGUA (BOTELLAS DE 500 ML)</t>
@@ -596,10 +605,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A32" sqref="A32:I32"/>
+      <selection activeCell="A34" sqref="A34:I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -953,7 +962,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="5">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>25</v>
@@ -962,330 +971,388 @@
         <v>26</v>
       </c>
       <c r="D17" s="5">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="E17" s="6">
-        <v>725.0</v>
+        <v>350.0</v>
       </c>
       <c r="F17" s="6">
         <v>1.0</v>
       </c>
       <c r="G17" s="6">
+        <v>116.667</v>
+      </c>
+      <c r="H17" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="I17" s="6">
+        <v>233.333</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="5">
+        <v>23</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="E18" s="6">
+        <v>725.0</v>
+      </c>
+      <c r="F18" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="G18" s="6">
         <v>103.571</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H18" s="6">
         <v>6.0</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I18" s="6">
         <v>621.429</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="8" t="s">
+    <row r="19" spans="1:9">
+      <c r="A19" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="9">
-        <v>2154.91</v>
-      </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9">
-        <v>164.857</v>
-      </c>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9">
-        <v>1990.053</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="9">
+        <v>2504.91</v>
+      </c>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9">
+        <v>281.524</v>
+      </c>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9">
+        <v>2223.386</v>
+      </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="5">
+      <c r="A20" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="5">
+        <v>10</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="5">
+        <v>25.0</v>
+      </c>
+      <c r="E21" s="6">
+        <v>242.0</v>
+      </c>
+      <c r="F21" s="6">
+        <v>5.0</v>
+      </c>
+      <c r="G21" s="6">
+        <v>43.5</v>
+      </c>
+      <c r="H21" s="6">
+        <v>20.0</v>
+      </c>
+      <c r="I21" s="6">
+        <v>198.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="5">
         <v>13</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="5">
+      <c r="B22" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="5">
         <v>10.0</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E22" s="6">
         <v>100.0</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F22" s="6">
         <v>4.0</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G22" s="6">
         <v>40.0</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H22" s="6">
         <v>6.0</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I22" s="6">
         <v>60.0</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="8" t="s">
+    <row r="23" spans="1:9">
+      <c r="A23" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="9">
-        <v>100.0</v>
-      </c>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9">
-        <v>40.0</v>
-      </c>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9">
-        <v>60.0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="5">
-        <v>1</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="5">
-        <v>119.0</v>
-      </c>
-      <c r="E23" s="6">
-        <v>745.85</v>
-      </c>
-      <c r="F23" s="6">
-        <v>29.0</v>
-      </c>
-      <c r="G23" s="6">
-        <v>219.114</v>
-      </c>
-      <c r="H23" s="6">
-        <v>90.0</v>
-      </c>
-      <c r="I23" s="6">
-        <v>526.736</v>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="9">
+        <v>342.0</v>
+      </c>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9">
+        <v>83.5</v>
+      </c>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9">
+        <v>258.5</v>
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="5">
-        <v>2</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" s="5">
-        <v>27.0</v>
-      </c>
-      <c r="E24" s="6">
-        <v>441.885</v>
-      </c>
-      <c r="F24" s="6">
-        <v>11.0</v>
-      </c>
-      <c r="G24" s="6">
-        <v>188.417</v>
-      </c>
-      <c r="H24" s="6">
-        <v>16.0</v>
-      </c>
-      <c r="I24" s="6">
-        <v>253.468</v>
-      </c>
+      <c r="A24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="5">
+        <v>1</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="5">
+        <v>119.0</v>
+      </c>
+      <c r="E25" s="6">
+        <v>745.85</v>
+      </c>
+      <c r="F25" s="6">
+        <v>29.0</v>
+      </c>
+      <c r="G25" s="6">
+        <v>219.114</v>
+      </c>
+      <c r="H25" s="6">
+        <v>90.0</v>
+      </c>
+      <c r="I25" s="6">
+        <v>526.736</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="5">
+        <v>2</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="5">
+        <v>27.0</v>
+      </c>
+      <c r="E26" s="6">
+        <v>441.885</v>
+      </c>
+      <c r="F26" s="6">
+        <v>11.0</v>
+      </c>
+      <c r="G26" s="6">
+        <v>188.417</v>
+      </c>
+      <c r="H26" s="6">
+        <v>16.0</v>
+      </c>
+      <c r="I26" s="6">
+        <v>253.468</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="5">
         <v>7</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" s="5">
+      <c r="B27" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="5">
         <v>10.0</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E27" s="6">
         <v>87.0</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F27" s="6">
         <v>0</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G27" s="6">
         <v>0</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H27" s="6">
         <v>10.0</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I27" s="6">
         <v>87.0</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="8" t="s">
+    <row r="28" spans="1:9">
+      <c r="A28" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="9">
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="9">
         <v>1274.735</v>
       </c>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9">
+      <c r="F28" s="9"/>
+      <c r="G28" s="9">
         <v>407.531</v>
       </c>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9">
+      <c r="H28" s="9"/>
+      <c r="I28" s="9">
         <v>867.204</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="5">
+    <row r="29" spans="1:9">
+      <c r="A29" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="5">
         <v>16</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D28" s="5">
+      <c r="B30" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="5">
         <v>87.0</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E30" s="6">
         <v>784.6</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F30" s="6">
         <v>36.0</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G30" s="6">
         <v>316.556</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H30" s="6">
         <v>51.0</v>
       </c>
-      <c r="I28" s="6">
+      <c r="I30" s="6">
         <v>468.044</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="5">
+    <row r="31" spans="1:9">
+      <c r="A31" s="5">
         <v>17</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D29" s="5">
-        <v>119.0</v>
-      </c>
-      <c r="E29" s="6">
-        <v>745.85</v>
-      </c>
-      <c r="F29" s="6">
-        <v>29.0</v>
-      </c>
-      <c r="G29" s="6">
-        <v>219.114</v>
-      </c>
-      <c r="H29" s="6">
-        <v>90.0</v>
-      </c>
-      <c r="I29" s="6">
-        <v>526.736</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="8" t="s">
+      <c r="B31" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="5">
+        <v>137.0</v>
+      </c>
+      <c r="E31" s="6">
+        <v>927.42</v>
+      </c>
+      <c r="F31" s="6">
+        <v>36.0</v>
+      </c>
+      <c r="G31" s="6">
+        <v>262.313</v>
+      </c>
+      <c r="H31" s="6">
+        <v>101.0</v>
+      </c>
+      <c r="I31" s="6">
+        <v>665.107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="9">
-        <v>1530.45</v>
-      </c>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9">
-        <v>535.67</v>
-      </c>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9">
-        <v>994.78</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2">
-        <v>6822.095</v>
-      </c>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2">
-        <v>1276.621</v>
-      </c>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2">
-        <v>5545.474</v>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="9">
+        <v>1712.02</v>
+      </c>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9">
+        <v>578.869</v>
+      </c>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9">
+        <v>1133.151</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2">
+        <v>7595.665</v>
+      </c>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2">
+        <v>1479.987</v>
+      </c>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2">
+        <v>6115.678</v>
       </c>
     </row>
   </sheetData>
@@ -1302,14 +1369,14 @@
     <mergeCell ref="A7:I7"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="A11:I11"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:I19"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:I22"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:I27"/>
-    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:I29"/>
     <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A34:C34"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
